--- a/专题6_语法制导翻译程序设计原理与实现技术/SLR(1)分析表.xlsx
+++ b/专题6_语法制导翻译程序设计原理与实现技术/SLR(1)分析表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,111 +206,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>S8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>S10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>S11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>S10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,7 +311,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -368,17 +356,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,440 +651,440 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="5.5546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="2">
         <v>5</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="2">
         <v>6</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="2">
+        <v>14</v>
+      </c>
+      <c r="O11" s="2">
+        <v>6</v>
+      </c>
+      <c r="P11" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="2">
+        <v>15</v>
+      </c>
+      <c r="P13" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="2">
+        <v>16</v>
+      </c>
+      <c r="P14" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="4" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="2">
         <v>18</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="4">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="O11" s="4">
-        <v>6</v>
-      </c>
-      <c r="P11" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O13" s="4">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="P13" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" s="4">
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="P14" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" s="4">
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" s="4">
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>16</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="D22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>17</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>18</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>19</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
